--- a/Varying H.xlsx
+++ b/Varying H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastiaan\Documents\GitHub\QML-Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E9D46D-5059-4F39-A59D-FB2BAF677E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06444F5-530A-491B-8982-07C882A5DDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>c \ veh</t>
   </si>
@@ -44,9 +44,6 @@
     <t>obj; s; gap</t>
   </si>
   <si>
-    <t>756.05; 8; 0.0</t>
-  </si>
-  <si>
     <t>infeasible</t>
   </si>
   <si>
@@ -110,13 +107,28 @@
     <t>altijd split deliveries want één node met demand van 80. =&gt; Long run times</t>
   </si>
   <si>
-    <t>875.29;1800;1.12</t>
-  </si>
-  <si>
     <t>1086.16;1800;12.32</t>
   </si>
   <si>
     <t>875.29;1800;2.5</t>
+  </si>
+  <si>
+    <t>875.29;581;0.0</t>
+  </si>
+  <si>
+    <t>875.29;1200?;0.0</t>
+  </si>
+  <si>
+    <t>876.05;395;0.0</t>
+  </si>
+  <si>
+    <t>801.28; 51; 0.0</t>
+  </si>
+  <si>
+    <t>875.29;1800;1.02</t>
+  </si>
+  <si>
+    <t>gap &gt; 0 bij c = 100 leidt tot meer split deliveries</t>
   </si>
 </sst>
 </file>
@@ -154,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -162,16 +174,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -452,26 +554,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="5" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="17.21875" customWidth="1"/>
     <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,207 +609,228 @@
       <c r="K1">
         <v>24</v>
       </c>
-      <c r="L1">
-        <v>26</v>
-      </c>
-      <c r="M1">
-        <v>28</v>
-      </c>
-      <c r="N1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
         <f>J1*A2</f>
         <v>1320</v>
       </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
         <f>G1*A3</f>
         <v>1280</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <f>1300</f>
-        <v>1300</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>120</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>140</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>22</v>
       </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Varying H.xlsx
+++ b/Varying H.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastiaan\Documents\GitHub\QML-Q2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44757a50ee7ec691/Documents/GitHub/QML-Q2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06444F5-530A-491B-8982-07C882A5DDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{E06444F5-530A-491B-8982-07C882A5DDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C0E4322-980F-4907-943B-82D80850EA76}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8715" yWindow="5100" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>c \ veh</t>
   </si>
@@ -47,39 +47,18 @@
     <t>infeasible</t>
   </si>
   <si>
-    <t>781.03; 16; 0.0</t>
-  </si>
-  <si>
-    <t>801.28; 65; 0.0</t>
-  </si>
-  <si>
     <t>long run</t>
   </si>
   <si>
     <t>756.05; 6; 0.0</t>
   </si>
   <si>
-    <t>801.28; 32; 0.0</t>
-  </si>
-  <si>
-    <t>781.03; 25; 0.0</t>
-  </si>
-  <si>
     <t>875.29;1303;0.0</t>
   </si>
   <si>
-    <t>781.03; 15.2; 0.0</t>
-  </si>
-  <si>
     <t>demand = 1270</t>
   </si>
   <si>
-    <t>801.28;26;0.0</t>
-  </si>
-  <si>
-    <t>801.28;25;0.0</t>
-  </si>
-  <si>
     <t>801.28;17;0.0</t>
   </si>
   <si>
@@ -95,9 +74,6 @@
     <t>781.03;5;0.0</t>
   </si>
   <si>
-    <t>781.03;8;0.0</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -113,29 +89,74 @@
     <t>875.29;1800;2.5</t>
   </si>
   <si>
-    <t>875.29;581;0.0</t>
-  </si>
-  <si>
-    <t>875.29;1200?;0.0</t>
-  </si>
-  <si>
-    <t>876.05;395;0.0</t>
-  </si>
-  <si>
-    <t>801.28; 51; 0.0</t>
-  </si>
-  <si>
-    <t>875.29;1800;1.02</t>
-  </si>
-  <si>
     <t>gap &gt; 0 bij c = 100 leidt tot meer split deliveries</t>
+  </si>
+  <si>
+    <t>Geen split deliveries</t>
+  </si>
+  <si>
+    <t>787.48;10;0.0</t>
+  </si>
+  <si>
+    <t>781.03;6;0.0</t>
+  </si>
+  <si>
+    <t>801.28;15;0.0</t>
+  </si>
+  <si>
+    <t>781.03; 11; 0.0</t>
+  </si>
+  <si>
+    <t>781.03; 15; 0.0</t>
+  </si>
+  <si>
+    <t>781.03; 23; 0.0</t>
+  </si>
+  <si>
+    <t>801.28;21;0.0</t>
+  </si>
+  <si>
+    <t>801.28; 30; 0.0</t>
+  </si>
+  <si>
+    <t>801.28; 28; 0.0</t>
+  </si>
+  <si>
+    <t>801.28; 35; 0.0</t>
+  </si>
+  <si>
+    <t>876.05;295;0.0</t>
+  </si>
+  <si>
+    <t>14/100 3 split del</t>
+  </si>
+  <si>
+    <t>875.29;641;0.0</t>
+  </si>
+  <si>
+    <t>875.29;1376;0.0</t>
+  </si>
+  <si>
+    <t>16/100 3 split</t>
+  </si>
+  <si>
+    <t>875.29;1800;0.74</t>
+  </si>
+  <si>
+    <t>18/100 3 split</t>
+  </si>
+  <si>
+    <t>aantal split deliveries # nodes &lt;= 2</t>
+  </si>
+  <si>
+    <t>Meerdere split deliveries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,9 +165,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -258,25 +292,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -289,6 +325,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,28 +594,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,227 +650,253 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
         <f>J1*A2</f>
         <v>1320</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8">
         <f>G1*A3</f>
         <v>1280</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>5</v>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
+      <c r="F4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="I4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>120</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>140</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Varying H.xlsx
+++ b/Varying H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44757a50ee7ec691/Documents/GitHub/QML-Q2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{E06444F5-530A-491B-8982-07C882A5DDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C0E4322-980F-4907-943B-82D80850EA76}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{E06444F5-530A-491B-8982-07C882A5DDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DF029CC-55D9-4E82-A0C9-B3CD00C1688B}"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="5100" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
   <si>
     <t>c \ veh</t>
   </si>
@@ -47,15 +47,9 @@
     <t>infeasible</t>
   </si>
   <si>
-    <t>long run</t>
-  </si>
-  <si>
     <t>756.05; 6; 0.0</t>
   </si>
   <si>
-    <t>875.29;1303;0.0</t>
-  </si>
-  <si>
     <t>demand = 1270</t>
   </si>
   <si>
@@ -83,12 +77,6 @@
     <t>altijd split deliveries want één node met demand van 80. =&gt; Long run times</t>
   </si>
   <si>
-    <t>1086.16;1800;12.32</t>
-  </si>
-  <si>
-    <t>875.29;1800;2.5</t>
-  </si>
-  <si>
     <t>gap &gt; 0 bij c = 100 leidt tot meer split deliveries</t>
   </si>
   <si>
@@ -150,13 +138,88 @@
   </si>
   <si>
     <t>Meerdere split deliveries</t>
+  </si>
+  <si>
+    <t>875.29; 1800, 0.80</t>
+  </si>
+  <si>
+    <t>3 split</t>
+  </si>
+  <si>
+    <t>geen split</t>
+  </si>
+  <si>
+    <t>1/2 split</t>
+  </si>
+  <si>
+    <t>875.29;1782;0.0</t>
+  </si>
+  <si>
+    <t>875.29; 1800; 1.38</t>
+  </si>
+  <si>
+    <t>1082.37;1800;11.81</t>
+  </si>
+  <si>
+    <t>80/16 3 split del</t>
+  </si>
+  <si>
+    <t>1076.73;1800;11.79</t>
+  </si>
+  <si>
+    <t>18/80 1 split del</t>
+  </si>
+  <si>
+    <t>1076.84;1800;11.58</t>
+  </si>
+  <si>
+    <t>20/80 1 split</t>
+  </si>
+  <si>
+    <t>13 100?</t>
+  </si>
+  <si>
+    <t>average demand for nodes: 24 packages</t>
+  </si>
+  <si>
+    <t>1078.30;1800;13.23</t>
+  </si>
+  <si>
+    <t>22/80 2 split</t>
+  </si>
+  <si>
+    <t>24/80 3 split</t>
+  </si>
+  <si>
+    <t>1078.76;1800;13.58</t>
+  </si>
+  <si>
+    <t>40 &amp; 32 vehicles -&gt; moet veel split deliveries geven voor alle demand</t>
+  </si>
+  <si>
+    <t>laagste demand = 10 dus als we een capacity van 9 doen zou die alleen maar split deliveries kunnen doen, heb je 142 vehicles nodig, maar kan wss niet binnen time window</t>
+  </si>
+  <si>
+    <t># split delivery nodes</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1265,19;1800;14,62</t>
+  </si>
+  <si>
+    <t>1265,19;1800;15.44</t>
+  </si>
+  <si>
+    <t># veh used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +248,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -200,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -222,17 +300,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -292,24 +359,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +690,7 @@
     <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60</v>
       </c>
@@ -678,225 +753,668 @@
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="5">
-        <f>J1*A2</f>
-        <v>1320</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8">
-        <f>G1*A3</f>
-        <v>1280</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>120</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>140</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="I6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="21">
+        <v>10</v>
+      </c>
+      <c r="C24" s="21">
+        <v>11</v>
+      </c>
+      <c r="D24" s="21">
+        <v>12</v>
+      </c>
+      <c r="E24" s="21">
+        <v>13</v>
+      </c>
+      <c r="F24" s="21">
+        <v>14</v>
+      </c>
+      <c r="G24" s="21">
+        <v>16</v>
+      </c>
+      <c r="H24" s="21">
+        <v>18</v>
+      </c>
+      <c r="I24" s="21">
+        <v>20</v>
+      </c>
+      <c r="J24" s="21">
+        <v>22</v>
+      </c>
+      <c r="K24" s="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>60</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="11">
+        <v>4</v>
+      </c>
+      <c r="K25" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>80</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="12">
+        <v>3</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17">
+        <v>2</v>
+      </c>
+      <c r="K26" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>100</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19">
+        <v>3</v>
+      </c>
+      <c r="G27" s="19">
+        <v>3</v>
+      </c>
+      <c r="H27" s="19">
+        <v>3</v>
+      </c>
+      <c r="I27" s="12">
+        <v>3</v>
+      </c>
+      <c r="J27" s="12">
+        <v>3</v>
+      </c>
+      <c r="K27" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>120</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="G28" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>140</v>
+      </c>
+      <c r="B29" s="16">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="21">
+        <v>10</v>
+      </c>
+      <c r="C31" s="21">
+        <v>11</v>
+      </c>
+      <c r="D31" s="21">
+        <v>12</v>
+      </c>
+      <c r="E31" s="21">
+        <v>13</v>
+      </c>
+      <c r="F31" s="21">
+        <v>14</v>
+      </c>
+      <c r="G31" s="21">
+        <v>16</v>
+      </c>
+      <c r="H31" s="21">
         <v>18</v>
+      </c>
+      <c r="I31" s="21">
+        <v>20</v>
+      </c>
+      <c r="J31" s="21">
+        <v>22</v>
+      </c>
+      <c r="K31" s="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>60</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="11">
+        <v>4</v>
+      </c>
+      <c r="K32" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>80</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="12">
+        <v>3</v>
+      </c>
+      <c r="H33" s="17">
+        <v>1</v>
+      </c>
+      <c r="I33" s="17">
+        <v>1</v>
+      </c>
+      <c r="J33" s="17">
+        <v>2</v>
+      </c>
+      <c r="K33" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>100</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19">
+        <v>3</v>
+      </c>
+      <c r="G34" s="19">
+        <v>3</v>
+      </c>
+      <c r="H34" s="19">
+        <v>3</v>
+      </c>
+      <c r="I34" s="12">
+        <v>3</v>
+      </c>
+      <c r="J34" s="12">
+        <v>3</v>
+      </c>
+      <c r="K34" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>120</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>140</v>
+      </c>
+      <c r="B36" s="16">
+        <v>0</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0</v>
+      </c>
+      <c r="H36" s="16">
+        <v>0</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
